--- a/dist/document/dest/2020/10/doctors/vtl.xlsx
+++ b/dist/document/dest/2020/10/doctors/vtl.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>207300</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="C3" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>10000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -438,7 +429,7 @@
         <v>85</v>
       </c>
       <c r="C5" s="1">
-        <v>1141300</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/vtl.xlsx
+++ b/dist/document/dest/2020/10/doctors/vtl.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,39 +402,37 @@
         <v>Augmentin 625mg (Amoxicillin + kali clavulanate)</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>276400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Clatab (Clarithromycin 500mg)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B3" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B5" s="1">
-        <v>85</v>
-      </c>
-      <c r="C5" s="1">
-        <v>NaN</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>286400</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>